--- a/data/case1/20/Q1_14.xlsx
+++ b/data/case1/20/Q1_14.xlsx
@@ -56,172 +56,172 @@
   <dimension ref="A1:A33"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.23334074964659379</v>
+        <v>0.20466831670470498</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999584903208</v>
+        <v>-0.0059999999659865466</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999632325256</v>
+        <v>-0.0039999999682702736</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999326432203</v>
+        <v>-0.0079999999421893619</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999614505057</v>
+        <v>-0.0029999999650502929</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999570732285</v>
+        <v>0.054297471790942353</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999999033033582</v>
+        <v>-0.0099999999154127828</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999999013165031</v>
+        <v>-0.019127478994534375</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999522011258</v>
+        <v>-0.001999999959275911</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999505255772</v>
+        <v>-0.0019999999604092267</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999438974356</v>
+        <v>0.023666237308498594</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.013159784861481949</v>
+        <v>-0.0034999999521154734</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999363245493</v>
+        <v>-0.0034999999514582214</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999054720661</v>
+        <v>0.0081357937330244212</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999995103683403</v>
+        <v>-0.00099999996442168282</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999437447791</v>
+        <v>-0.0019999999584023875</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999427442461</v>
+        <v>-0.0019999999575750493</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999292428257</v>
+        <v>-0.0039999999464530589</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.051980834822769495</v>
+        <v>-0.0039999999767279526</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999687321264</v>
+        <v>-0.0039999999750595094</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999684123821</v>
+        <v>-0.0039999999747806214</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999681636922</v>
+        <v>-0.0039999999745612413</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999546042062</v>
+        <v>-0.0049999999609946499</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999851802563</v>
+        <v>-0.019999999876189278</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999849919625</v>
+        <v>-0.019999999874558583</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999526098549</v>
+        <v>-0.059938407222960066</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999507420156</v>
+        <v>-0.0024999999512576032</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999466246976</v>
+        <v>-0.0019999999439122007</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999999084524589</v>
+        <v>-0.0069999999090510912</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999555854888</v>
+        <v>-0.059999999616486388</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.026668188433134787</v>
+        <v>-0.0069999999025522897</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.009999999886680655</v>
+        <v>-0.0099999998858066874</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999999261723929</v>
+        <v>-0.0039999999183280011</v>
       </c>
     </row>
   </sheetData>
